--- a/trunk/Document/FeatureList_Laptopgovap.xlsx
+++ b/trunk/Document/FeatureList_Laptopgovap.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Database" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Table13[#All]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Table1[#All]</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>STT</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>List sản phẩm</t>
+  </si>
+  <si>
+    <t>CreatedDate</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>CreatedBy</t>
   </si>
 </sst>
 </file>
@@ -128,7 +137,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -161,17 +170,23 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -185,6 +200,22 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G35" totalsRowShown="0">
+  <autoFilter ref="A1:G35"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="STT"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="7" name="Position"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Piority"/>
+    <tableColumn id="5" name="StartBy" dataDxfId="3"/>
+    <tableColumn id="6" name="StartDate" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:G35" totalsRowShown="0">
   <autoFilter ref="A1:G35"/>
   <tableColumns count="7">
     <tableColumn id="1" name="STT"/>
@@ -488,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,6 +576,9 @@
       <c r="C2" t="s">
         <v>25</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
@@ -698,6 +732,12 @@
       </c>
       <c r="B12" t="s">
         <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -897,26 +937,350 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="12" max="14" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F35">
+      <formula1>$N$1:$N$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E35">
+      <formula1>$M$1:$M$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D37">
+      <formula1>$L$1:$L$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="7" max="1048575" man="1"/>
+  </colBreaks>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>